--- a/data/trans_bre/P16A11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1383,99%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 2,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,98%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 0,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 1,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,87; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,18; 435,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 159,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,59%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 3,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 0,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,62; 191,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,2; 26,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,8; 49,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,92; 11,96</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 1,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 5,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,58; -0,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 3,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,99; 18,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; 60,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,67; -3,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,57; 28,0</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 8,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 11,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 13,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; 1,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 32,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 37,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,14; 69,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; 5,03</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 14,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 12,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 9,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 20,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 37,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 24,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 21,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 42,3</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 5,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 6,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 4,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 11,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,09; 48,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,42; 39,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 34,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 59,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1383,99%</t>
+          <t>1123,95%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,94</t>
+          <t>-0,08; 2,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>103,98%</t>
+          <t>93,83%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,69</t>
+          <t>-0,55; 1,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-44,59%</t>
+          <t>-42,17%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,17</t>
+          <t>-3,74; 0,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,92; 11,96</t>
+          <t>-72,65; 15,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>11,64%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,13</t>
+          <t>-4,36; 8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 28,0</t>
+          <t>-28,22; 141,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>-11,18%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,27</t>
+          <t>-7,41; 1,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 5,03</t>
+          <t>-23,95; 4,22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>15,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,72</t>
+          <t>-0,2; 14,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,56</t>
+          <t>-1,98; 14,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 9,35</t>
+          <t>-4,01; 10,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 20,73</t>
+          <t>-4,11; 39,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 37,77</t>
+          <t>-1,02; 43,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 24,54</t>
+          <t>-3,61; 31,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 21,09</t>
+          <t>-8,8; 27,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 42,3</t>
+          <t>-8,48; 87,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>12,27%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,16; 18,37</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 13,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 10,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 12,69</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 43,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 24,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 20,28</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 23,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,31; 5,82</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,18; 6,19</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,03; 4,79</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 11,23</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 20,57</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>17,09; 48,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>12,42; 39,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,48; 34,14</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 59,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 135,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,0</t>
+          <t>-0,79; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,0</t>
+          <t>-1,05; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,41</t>
+          <t>-0,08; 2,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,46</t>
+          <t>-0,08; 1,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,74</t>
+          <t>-0,83; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,17</t>
+          <t>-1,74; 0,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,61</t>
+          <t>-0,53; 1,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,87; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,18; 435,12</t>
+          <t>-75,05; 352,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 159,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,52</t>
+          <t>-0,25; 3,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,73</t>
+          <t>-3,75; 0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,07</t>
+          <t>-2,76; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,32</t>
+          <t>-3,57; 0,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 191,43</t>
+          <t>-11,15; 187,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 26,58</t>
+          <t>-60,88; 22,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 49,27</t>
+          <t>-63,41; 39,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-72,65; 15,86</t>
+          <t>-71,39; 21,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,87</t>
+          <t>-6,22; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,78</t>
+          <t>-2,16; 5,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,43</t>
+          <t>-7,92; -0,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 8,05</t>
+          <t>-3,92; 8,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 18,42</t>
+          <t>-42,85; 13,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 60,02</t>
+          <t>-15,57; 58,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,67; -3,88</t>
+          <t>-50,53; -2,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 141,28</t>
+          <t>-26,29; 161,94</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 8,8</t>
+          <t>-4,35; 8,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 11,53</t>
+          <t>-1,63; 11,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,86</t>
+          <t>1,93; 13,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,07</t>
+          <t>-7,84; 1,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 32,88</t>
+          <t>-12,77; 32,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 37,3</t>
+          <t>-4,57; 36,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 69,88</t>
+          <t>7,62; 70,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 4,22</t>
+          <t>-25,04; 6,24</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 14,99</t>
+          <t>-0,25; 14,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 14,03</t>
+          <t>-1,74; 14,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 10,48</t>
+          <t>-3,71; 10,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 39,16</t>
+          <t>-4,51; 38,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 43,31</t>
+          <t>-1,05; 41,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 31,07</t>
+          <t>-3,19; 30,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 27,61</t>
+          <t>-8,29; 26,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 87,47</t>
+          <t>-9,14; 90,34</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 18,37</t>
+          <t>0,43; 17,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 13,39</t>
+          <t>-3,01; 13,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 10,14</t>
+          <t>-5,06; 10,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 12,69</t>
+          <t>0,2; 12,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 43,88</t>
+          <t>0,8; 42,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 24,56</t>
+          <t>-4,63; 25,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 20,28</t>
+          <t>-8,7; 20,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 23,5</t>
+          <t>0,41; 23,4</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,82</t>
+          <t>2,28; 5,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,19</t>
+          <t>2,25; 6,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,79</t>
+          <t>1,2; 4,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 20,57</t>
+          <t>1,57; 23,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,09; 48,49</t>
+          <t>17,1; 47,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,42; 39,26</t>
+          <t>12,74; 39,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,48; 34,14</t>
+          <t>7,09; 33,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,12; 135,21</t>
+          <t>8,5; 150,83</t>
         </is>
       </c>
     </row>
